--- a/Tests/MainBattle/Test_MainBattle_Chara/Test_MainBattle_Chara.xlsx
+++ b/Tests/MainBattle/Test_MainBattle_Chara/Test_MainBattle_Chara.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NameBattler\Tests\MainBattle\Test_MainBattle_Chara\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B95416-C6D3-4123-8DDD-107D00919633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2032FC47-DEEC-4DC5-8D08-00CF377B5DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36" yWindow="84" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メインバトル画面" sheetId="2" r:id="rId1"/>
@@ -948,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079E6547-B4E5-4326-80E1-3E628B2F9BC3}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:I2"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1077,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2DA005-0761-413A-ADD2-A1DE28DFECD0}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/Tests/MainBattle/Test_MainBattle_Chara/Test_MainBattle_Chara.xlsx
+++ b/Tests/MainBattle/Test_MainBattle_Chara/Test_MainBattle_Chara.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NameBattler\Tests\MainBattle\Test_MainBattle_Chara\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2032FC47-DEEC-4DC5-8D08-00CF377B5DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF621550-17AF-42D1-8823-5D29DD78CBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12" yWindow="0" windowWidth="23028" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メインバトル画面" sheetId="2" r:id="rId1"/>
-    <sheet name="Fighter.Attack" sheetId="3" r:id="rId2"/>
+    <sheet name="Ninja.Attack" sheetId="5" r:id="rId2"/>
+    <sheet name="Fighter.Attack" sheetId="3" r:id="rId3"/>
+    <sheet name="Wizard.Attack" sheetId="6" r:id="rId4"/>
+    <sheet name="Priest.Attack" sheetId="10" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,69 +30,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="117">
   <si>
     <t>大項目</t>
     <rPh sb="0" eb="3">
       <t>ダイコウモク</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>中項目</t>
     <rPh sb="0" eb="3">
       <t>チュウコウモク</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>小項目</t>
     <rPh sb="0" eb="3">
       <t>ショウコウモク</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>入力</t>
     <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>出力</t>
     <rPh sb="0" eb="2">
       <t>シュツリョク</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>画面</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
       <t>コウモク</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>結果</t>
     <rPh sb="0" eb="2">
       <t>ケッカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>確認項目</t>
     <rPh sb="0" eb="4">
       <t>カクニンコウモク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>InputFieldManager.charaName</t>
@@ -98,14 +102,14 @@
     <rPh sb="0" eb="2">
       <t>ジッコウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>実行テスト2</t>
     <rPh sb="0" eb="2">
       <t>ジッコウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>初回テスト実施日</t>
@@ -115,7 +119,7 @@
     <rPh sb="5" eb="8">
       <t>ジッシビ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>テスト合格日</t>
@@ -125,70 +129,66 @@
     <rPh sb="5" eb="6">
       <t>ビ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
       <t>キノウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>期待結果</t>
     <rPh sb="0" eb="4">
       <t>キタイケッカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>テスト結果</t>
     <rPh sb="3" eb="5">
       <t>ケッカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>テスト1</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>テスト2</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>スクリプト</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>メソッド</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>エビデンス</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>エビデンス番号</t>
     <rPh sb="5" eb="7">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>メインバトル</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>戦士</t>
     <rPh sb="0" eb="2">
       <t>センシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>戦士の攻撃処理</t>
@@ -198,7 +198,7 @@
     <rPh sb="3" eb="7">
       <t>コウゲキショリ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>battletext.text</t>
@@ -211,11 +211,11 @@
   </si>
   <si>
     <t>テストデータ</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>HP</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -232,7 +232,7 @@
       </rPr>
       <t>TR</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -249,7 +249,7 @@
       </rPr>
       <t>EF</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -266,7 +266,7 @@
       </rPr>
       <t>UCK</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -283,7 +283,7 @@
       </rPr>
       <t>GI</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -300,7 +300,7 @@
       </rPr>
       <t>P</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -317,7 +317,7 @@
       </rPr>
       <t>OB</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -334,7 +334,7 @@
       </rPr>
       <t>OBs.Fighter</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -351,87 +351,1003 @@
       </rPr>
       <t>ttackFinished</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>攻撃プレイヤー</t>
     <rPh sb="0" eb="2">
       <t>コウゲキ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ステータス</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>被攻撃プレイヤー</t>
     <rPh sb="0" eb="3">
       <t>ヒコウゲキ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>PlayerName</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>testAttacker</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>testDefender</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>バトルスタート！\r\testAttackerの攻撃 ➡testDefenderに5のダメージ</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>バトルスタート！\r\testAttackerの攻撃 ➡testDefenderに4のダメージ</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>テストデータにてAttack()実行</t>
     <rPh sb="16" eb="18">
       <t>ジッコウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>テストデータの攻撃プレイヤーのLUCKを0にしてAttack()実行</t>
-    <rPh sb="7" eb="9">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>Tests_Fighter</t>
-  </si>
-  <si>
-    <t>test_Attack()</t>
   </si>
   <si>
     <t>攻撃処理</t>
     <rPh sb="0" eb="4">
       <t>コウゲキショリ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <r>
+      <t>test_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>critical</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Attack()</t>
+    </r>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <r>
+      <t>test_normalA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ttack()</t>
+    </r>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <r>
+      <t>テストデータの攻撃プレイヤーのLUCKを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>にしてAttack()実行</t>
+    </r>
+    <rPh sb="7" eb="9">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>実行テスト3</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <r>
+      <t>テストデータの攻撃プレイヤーのAbnormalityをParise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>にしてAttack()を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>実行</t>
+    </r>
+    <rPh sb="7" eb="9">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <r>
+      <t>”バトルスタート！\r\testAttackerの攻撃 ➡testDefenderに5のダメージ”もしくは”バトルスタート！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\r\n{attacker.PlayerName}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>は麻痺した”</t>
+    </r>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>96もしくは100</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>テスト3</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>test_pariseAttack()</t>
+  </si>
+  <si>
+    <t>Ninja</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>忍者</t>
+    <rPh sb="0" eb="2">
+      <t>ニンジャ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>忍者の攻撃処理</t>
+    <rPh sb="0" eb="2">
+      <t>ニンジャ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>コウゲキショリ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>defender.DEF</t>
+  </si>
+  <si>
+    <r>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OBs.Ninja</t>
+    </r>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>JOBs.Wizard</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>実行テスト4</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <r>
+      <t>バトルスタート！\r\testAttackerの攻撃 ➡testDefenderに10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>のダメージ</t>
+    </r>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>DEF</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bnormality</t>
+    </r>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Parisre</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <r>
+      <t>テストデータで</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Attack(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>defender,1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)を実行</t>
+    </r>
+    <rPh sb="26" eb="28">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <r>
+      <t>テストデータのdefenderのJOBをFighterにし</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Attack(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>defender,2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)を実行</t>
+    </r>
+    <rPh sb="48" eb="50">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>バトルスタート！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\r\testAttacker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の攻撃 ➡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>testDefender</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に9のダメージ</t>
+    </r>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <r>
+      <t>テストデータのLUCKを50にし</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Attack(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>defender,2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)を12回実行</t>
+    </r>
+    <rPh sb="37" eb="38">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <r>
+      <t>"バトルスタート！\r\testAttackerの攻撃 ➡testDefenderに8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>のダメージ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"もしくは”バトルスタート！\r\testAttackerの攻撃 ➡testDefenderに10のダメージ”</t>
+    </r>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>92もしくは90</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Tests_Ninja</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>test_firstturnAttack()</t>
+  </si>
+  <si>
+    <t>test_Attacktofighter()</t>
+  </si>
+  <si>
+    <t>test_secondturnAttack()</t>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>魔法使い</t>
+    <rPh sb="0" eb="3">
+      <t>マホウツカ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>魔法使いの攻撃処理</t>
+    <rPh sb="0" eb="3">
+      <t>マホウツカ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>コウゲキショリ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>攻撃処理</t>
+    <rPh sb="0" eb="4">
+      <t>コウゲキショリ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>attacker.MP</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <r>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OBs.Wizard</t>
+    </r>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <r>
+      <t>バトルスタート！\r\n{attacker.PlayerName}のファイア！   {defender.PlayerName}に{damage}のダメージ"もしくはバトルスタート！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\r\n{attacker.PlayerName}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>のサンダー！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   {defender.PlayerName}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{damage}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>のダメージ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>";</t>
+    </r>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>90～70</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>5もしくは0</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>実行テスト1</t>
+    <rPh sb="0" eb="6">
+      <t>カイジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <r>
+      <t>テストデータのa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ttacker.MPを20にして</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Attack()実行</t>
+    </r>
+    <rPh sb="32" eb="34">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>バトルスタート！\r\n{attacker.PlayerName}のファイア！   {defender.PlayerName}に{damage}のダメージ"もしくは"バトルスタート！\r\n{attacker.PlayerName}の攻撃 ➡ {defender.PlayerName}に{normaldamage}のダメージ"</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>90～80もしくは96</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>変化なしもしくは0</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <r>
+      <t>テストデータのattacker.MPを24にして</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Attack()実行</t>
+    </r>
+    <rPh sb="32" eb="34">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <r>
+      <t>テストデータのattacker.MPを19にして</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Attack()実行</t>
+    </r>
+    <rPh sb="32" eb="34">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>"バトルスタート！\r\n{attacker.PlayerName}の攻撃 ➡ {defender.PlayerName}に{normaldamage}のダメージ"</t>
+  </si>
+  <si>
+    <t>テスト4</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Tests_Wizard</t>
+  </si>
+  <si>
+    <t>test_Attackfirst()</t>
+  </si>
+  <si>
+    <t>test_Attacksecond()</t>
+  </si>
+  <si>
+    <t>test_Attackthird()</t>
+  </si>
+  <si>
+    <t>僧侶</t>
+    <rPh sb="0" eb="2">
+      <t>ソウリョ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <r>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>僧侶の攻撃処理</t>
+    <rPh sb="0" eb="2">
+      <t>ソウリョ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>コウゲキショリ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>efender.Abnormality</t>
+    </r>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>JOBs.Priest</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>テストデータにて1ターン目のAttack()実行</t>
+    <rPh sb="12" eb="13">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>"バトルスタート！\r\n{attacker.PlayerName}のポイズン！ ➡ {defender.PlayerName}は毒状態になった"もしくは"バトルスタート！\r\n{attacker.PlayerName}のパライズ！ ➡ {defender.PlayerName}は麻痺状態になった"</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ariseもしくはポイズン</t>
+    </r>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <r>
+      <t>テストデータにて2ターン目の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Attack()実行</t>
+    </r>
+    <rPh sb="12" eb="13">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>"バトルスタート！\r\n{attacker.PlayerName}の攻撃 ➡ {defender.PlayerName}に4のダメージ"</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <r>
+      <t>テストデータのdefender.TeamsをPlayerにして</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Attack()実行</t>
+    </r>
+    <rPh sb="39" eb="41">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>"バトルスタート！\r\n{attacker.PlayerName}のヒール ➡ {defender.PlayerName}のHPを50回復 + {defender.HP}➡({defender.HP}+50))"</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Tests_Priest</t>
+  </si>
+  <si>
+    <t>test_normalattack()</t>
+  </si>
+  <si>
+    <t>test_heal()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -506,7 +1422,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -529,32 +1445,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -563,50 +1531,140 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -634,21 +1692,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1051829</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>84283</xdr:rowOff>
+      <xdr:colOff>1055142</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>76669</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB6BD79B-2B43-4D24-816F-F21EF23BE5BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01584D74-C4AE-4FC3-8C8D-3084B93161E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -670,8 +1728,173 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="8001000"/>
-          <a:ext cx="3101609" cy="5342083"/>
+          <a:off x="0" y="10204174"/>
+          <a:ext cx="3109229" cy="5410669"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1059449</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>152869</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42AAD38F-F10A-4884-B36D-1881998F6A03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9601200"/>
+          <a:ext cx="3109229" cy="5410669"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1058314</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>151470</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4F6434A-8D05-45C2-8381-B26740D5A131}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11802894"/>
+          <a:ext cx="3109229" cy="4237087"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1081176</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>89448</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{376CF3B8-94EA-4CAD-B144-8ECD4A13C90C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11348936"/>
+          <a:ext cx="3132091" cy="5082980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -948,8 +2171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079E6547-B4E5-4326-80E1-3E628B2F9BC3}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -991,82 +2214,109 @@
         <v>13</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="43" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="21" t="s">
+      <c r="B2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>52</v>
+      <c r="C2" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="8">
-        <v>44394</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
+        <v>44422</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>80</v>
       </c>
       <c r="H2" s="8">
-        <v>44394</v>
+        <v>44422</v>
       </c>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="22"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>49</v>
+      </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="8"/>
+      <c r="F3" s="8">
+        <v>44422</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="8">
+        <v>44422</v>
+      </c>
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="22"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="12"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="F4" s="8">
+        <v>44422</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="8">
+        <v>44422</v>
+      </c>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="22"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>83</v>
+      </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="8"/>
+      <c r="F5" s="8">
+        <v>44422</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="8">
+        <v>44434</v>
+      </c>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="22"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="4"/>
+      <c r="A6" s="48" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
-  <phoneticPr fontId="6"/>
+  <phoneticPr fontId="10"/>
   <hyperlinks>
     <hyperlink ref="B2" location="Fighter.Attack!A1" display="攻撃処理" xr:uid="{D74E9555-54C5-4E1F-956F-298192286E15}"/>
+    <hyperlink ref="B3" location="Fighter.Ninja!A1" display="忍者" xr:uid="{337BD72A-EC89-4444-99A3-6658E8F17D74}"/>
+    <hyperlink ref="B5" location="※Priest.Attack!A1" display="僧侶" xr:uid="{E58307D2-8E31-4ABC-BDC3-B30A77604EEC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1074,11 +2324,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2DA005-0761-413A-ADD2-A1DE28DFECD0}">
-  <dimension ref="A1:D35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB254581-6FCC-47F4-B798-8F33C0A694CE}">
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:C28"/>
+    <sheetView topLeftCell="A31" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1090,7 +2340,7 @@
     <col min="5" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="7" customFormat="1">
+    <row r="1" spans="1:5" s="7" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -1098,322 +2348,1851 @@
         <v>6</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="44" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="44"/>
+      <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="22"/>
+    <row r="7" spans="1:5">
+      <c r="A7" s="44"/>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="44"/>
+      <c r="B8" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="50"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3">
+        <v>90</v>
+      </c>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="22"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="22"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="29">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="43"/>
+      <c r="B26" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="43"/>
+      <c r="B27" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="16">
+        <v>5</v>
+      </c>
+      <c r="D27" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="43"/>
+      <c r="B28" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="16">
+        <v>10</v>
+      </c>
+      <c r="D28" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="43"/>
+      <c r="B29" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="16">
+        <v>5</v>
+      </c>
+      <c r="D29" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="43"/>
+      <c r="B30" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="16">
+        <v>0</v>
+      </c>
+      <c r="D30" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="43"/>
+      <c r="B31" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="16">
+        <v>5</v>
+      </c>
+      <c r="D31" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="43"/>
+      <c r="B32" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="16">
+        <v>0</v>
+      </c>
+      <c r="D32" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="43"/>
+      <c r="B33" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="43"/>
+      <c r="B34" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="28"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="43"/>
+      <c r="B35" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="12"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="C37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="44"/>
+      <c r="B39" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="44"/>
+      <c r="B40" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="12"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="24"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A25:A35"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+  </mergeCells>
+  <phoneticPr fontId="10"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2DA005-0761-413A-ADD2-A1DE28DFECD0}">
+  <dimension ref="A1:E42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="26.8984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="94.796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.69921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="91.296875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.796875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="7" customFormat="1">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="44"/>
       <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="44"/>
+      <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="22"/>
-      <c r="B7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>48</v>
+      <c r="B10" s="43" t="s">
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3">
+        <v>96</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D11" s="3">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D12" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="22" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>49</v>
+      <c r="B15" s="46" t="s">
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
+      <c r="D15" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D16" s="3">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D17" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="D18" s="22"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="22"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="43"/>
+      <c r="B25" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="43"/>
+      <c r="B26" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="21"/>
-      <c r="B20" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="21"/>
-      <c r="B21" s="18" t="s">
+      <c r="C26" s="16">
+        <v>5</v>
+      </c>
+      <c r="D26" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="43"/>
+      <c r="B27" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C27" s="16">
         <v>5</v>
       </c>
-      <c r="D21" s="17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="21"/>
-      <c r="B22" s="18" t="s">
+      <c r="D27" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="43"/>
+      <c r="B28" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C28" s="16">
         <v>5</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D28" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="43"/>
+      <c r="B29" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="16">
+        <v>0</v>
+      </c>
+      <c r="D29" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="43"/>
+      <c r="B30" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="16">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="21"/>
-      <c r="B23" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="17">
+      <c r="D30" s="16">
         <v>5</v>
       </c>
-      <c r="D23" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="21"/>
-      <c r="B24" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="17">
-        <v>100</v>
-      </c>
-      <c r="D24" s="17">
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="43"/>
+      <c r="B31" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="16">
+        <v>0</v>
+      </c>
+      <c r="D31" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="43"/>
+      <c r="B32" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="43"/>
+      <c r="B33" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="12"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="C35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="44"/>
+      <c r="B37" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="44"/>
+      <c r="B38" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="12"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="24"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="21"/>
-      <c r="B25" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="17">
-        <v>5</v>
-      </c>
-      <c r="D25" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="21"/>
-      <c r="B26" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="17">
-        <v>0</v>
-      </c>
-      <c r="D26" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="21"/>
-      <c r="B27" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="21"/>
-      <c r="B28" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="D28" s="17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="13"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="C30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="22"/>
-      <c r="B32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="2">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="A24:A33"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A36:A38"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A31:A32"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A19:A28"/>
   </mergeCells>
-  <phoneticPr fontId="6"/>
+  <phoneticPr fontId="10"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2F7ECC-1EE0-4268-B752-3FA1EA9374C1}">
+  <dimension ref="A1:E52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="26.8984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="94.796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.69921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="91.296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="31.3984375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.796875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="7" customFormat="1">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="34"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="34"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="44"/>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="44"/>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="44"/>
+      <c r="B8" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="34"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="12"/>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="18"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="44"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="44"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="44"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="44"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="44"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="44"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="22"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="46"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="46"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="46"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="22"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="46"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="36">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="46"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="46"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="36">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="22"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="22"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="43"/>
+      <c r="B34" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="43"/>
+      <c r="B35" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="16">
+        <v>5</v>
+      </c>
+      <c r="D35" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="43"/>
+      <c r="B36" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="16">
+        <v>5</v>
+      </c>
+      <c r="D36" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="43"/>
+      <c r="B37" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="16">
+        <v>5</v>
+      </c>
+      <c r="D37" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="43"/>
+      <c r="B38" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="16">
+        <v>0</v>
+      </c>
+      <c r="D38" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="43"/>
+      <c r="B39" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="16">
+        <v>5</v>
+      </c>
+      <c r="D39" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="43"/>
+      <c r="B40" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="16">
+        <v>25</v>
+      </c>
+      <c r="D40" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="43"/>
+      <c r="B41" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="43"/>
+      <c r="B42" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="12"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="C44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="44"/>
+      <c r="B46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="44"/>
+      <c r="B47" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="44"/>
+      <c r="B48" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="12"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="24"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A33:A42"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="A17:A20"/>
+  </mergeCells>
+  <phoneticPr fontId="10"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B2FB94-DA70-4BD9-A2B5-47DF251CAC49}">
+  <dimension ref="A1:E50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="26.8984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="94.796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.69921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="91.296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="31.3984375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.796875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="7" customFormat="1">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="34"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="34"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="44"/>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="44"/>
+      <c r="B7" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="44"/>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="44"/>
+      <c r="B9" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="34"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="12"/>
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="41"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="47"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="42"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="47"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="47"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="47"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="44"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="36">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="44"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="44"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="44"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="22"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="46"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="36">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="46"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="46"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="36">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="22"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="22"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="43"/>
+      <c r="B33" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="43"/>
+      <c r="B34" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="16">
+        <v>5</v>
+      </c>
+      <c r="D34" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="43"/>
+      <c r="B35" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="16">
+        <v>5</v>
+      </c>
+      <c r="D35" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="43"/>
+      <c r="B36" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="16">
+        <v>5</v>
+      </c>
+      <c r="D36" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="43"/>
+      <c r="B37" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="16">
+        <v>0</v>
+      </c>
+      <c r="D37" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="43"/>
+      <c r="B38" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="16">
+        <v>5</v>
+      </c>
+      <c r="D38" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="43"/>
+      <c r="B39" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="16">
+        <v>50</v>
+      </c>
+      <c r="D39" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="43"/>
+      <c r="B40" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="43"/>
+      <c r="B41" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="12"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="C43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="44"/>
+      <c r="B45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="44"/>
+      <c r="B46" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="12"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="24"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B25:B29"/>
+  </mergeCells>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
